--- a/Files/Modules/Dwemer Legacy/Tables/Materials/Materials.xlsx
+++ b/Files/Modules/Dwemer Legacy/Tables/Materials/Materials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
